--- a/附加文件/word的label的对应表.xlsx
+++ b/附加文件/word的label的对应表.xlsx
@@ -782,7 +782,7 @@
   <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/附加文件/word的label的对应表.xlsx
+++ b/附加文件/word的label的对应表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7710"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -781,8 +781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/附加文件/word的label的对应表.xlsx
+++ b/附加文件/word的label的对应表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="101">
   <si>
     <t>:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -253,10 +253,6 @@
   </si>
   <si>
     <t>——</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>立即计算优先级和函数一样为6，没有意义</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -781,8 +777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -802,10 +798,10 @@
         <v>58</v>
       </c>
       <c r="D1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F1">
         <v>2</v>
@@ -814,13 +810,13 @@
         <v>3</v>
       </c>
       <c r="I1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -836,11 +832,14 @@
       <c r="D2" t="s">
         <v>59</v>
       </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
       <c r="I2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -863,13 +862,13 @@
         <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
@@ -899,14 +898,20 @@
       <c r="D5" t="s">
         <v>59</v>
       </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>11</v>
+      </c>
       <c r="I5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
@@ -920,16 +925,16 @@
         <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" t="s">
-        <v>60</v>
+        <v>65</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
@@ -946,7 +951,7 @@
         <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F7">
         <v>4</v>
@@ -955,13 +960,13 @@
         <v>11</v>
       </c>
       <c r="I7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
@@ -975,10 +980,10 @@
         <v>55</v>
       </c>
       <c r="D8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -987,13 +992,13 @@
         <v>11</v>
       </c>
       <c r="I8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
@@ -1019,13 +1024,13 @@
         <v>5</v>
       </c>
       <c r="I9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
@@ -1051,13 +1056,13 @@
         <v>5</v>
       </c>
       <c r="I10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
@@ -1083,13 +1088,13 @@
         <v>7</v>
       </c>
       <c r="I11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
@@ -1112,13 +1117,13 @@
         <v>7</v>
       </c>
       <c r="I12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
@@ -1141,13 +1146,13 @@
         <v>7</v>
       </c>
       <c r="I13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
@@ -1173,13 +1178,13 @@
         <v>11</v>
       </c>
       <c r="I14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
@@ -1193,13 +1198,13 @@
         <v>45</v>
       </c>
       <c r="D15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
@@ -1216,10 +1221,10 @@
         <v>59</v>
       </c>
       <c r="J16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
@@ -1266,22 +1271,22 @@
         <v>47</v>
       </c>
       <c r="D20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G20">
         <v>11</v>
       </c>
       <c r="J20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
@@ -1295,13 +1300,13 @@
         <v>47</v>
       </c>
       <c r="D21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
@@ -1315,7 +1320,7 @@
         <v>47</v>
       </c>
       <c r="L22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
@@ -1329,7 +1334,7 @@
         <v>47</v>
       </c>
       <c r="L23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
@@ -1343,7 +1348,7 @@
         <v>47</v>
       </c>
       <c r="L24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
@@ -1357,7 +1362,7 @@
         <v>47</v>
       </c>
       <c r="L25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
@@ -1371,7 +1376,7 @@
         <v>47</v>
       </c>
       <c r="L26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
@@ -1385,7 +1390,7 @@
         <v>47</v>
       </c>
       <c r="L27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
@@ -1399,7 +1404,7 @@
         <v>47</v>
       </c>
       <c r="L28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
@@ -1413,7 +1418,7 @@
         <v>47</v>
       </c>
       <c r="L29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
@@ -1427,7 +1432,7 @@
         <v>47</v>
       </c>
       <c r="L30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
@@ -1441,7 +1446,7 @@
         <v>47</v>
       </c>
       <c r="L31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
@@ -1455,7 +1460,7 @@
         <v>47</v>
       </c>
       <c r="L32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
@@ -1469,7 +1474,7 @@
         <v>47</v>
       </c>
       <c r="L33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
@@ -1483,7 +1488,7 @@
         <v>47</v>
       </c>
       <c r="L34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
@@ -1497,7 +1502,7 @@
         <v>47</v>
       </c>
       <c r="L35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
@@ -1511,7 +1516,7 @@
         <v>47</v>
       </c>
       <c r="L36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
@@ -1522,10 +1527,10 @@
         <v>37</v>
       </c>
       <c r="J37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
@@ -1536,10 +1541,10 @@
         <v>38</v>
       </c>
       <c r="J38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
@@ -1550,10 +1555,10 @@
         <v>39</v>
       </c>
       <c r="J39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
@@ -1564,10 +1569,10 @@
         <v>40</v>
       </c>
       <c r="J40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
@@ -1578,7 +1583,7 @@
         <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
@@ -1604,13 +1609,13 @@
         <v>11</v>
       </c>
       <c r="I42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L42" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
@@ -1624,10 +1629,10 @@
         <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
@@ -1638,27 +1643,27 @@
         <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B46">
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D46" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E46" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F46">
         <v>10</v>
@@ -1667,34 +1672,34 @@
         <v>11</v>
       </c>
       <c r="J46" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B47">
         <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B48">
         <v>47</v>
       </c>
       <c r="C48" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B49">
         <v>0</v>

--- a/附加文件/word的label的对应表.xlsx
+++ b/附加文件/word的label的对应表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="103">
   <si>
     <t>:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -417,6 +417,14 @@
   </si>
   <si>
     <t>空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>solve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -775,10 +783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L49"/>
+  <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1697,12 +1705,23 @@
         <v>99</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
         <v>100</v>
       </c>
       <c r="B49">
         <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A50" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B50">
+        <v>48</v>
+      </c>
+      <c r="C50" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/附加文件/word的label的对应表.xlsx
+++ b/附加文件/word的label的对应表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="105">
   <si>
     <t>:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -425,6 +425,14 @@
   </si>
   <si>
     <t>函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>help</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -783,10 +791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L50"/>
+  <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1722,6 +1730,22 @@
       </c>
       <c r="C50" t="s">
         <v>102</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A51" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B51">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A52" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B52">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
